--- a/Assets/Inscription.xlsx
+++ b/Assets/Inscription.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="23895" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>id</t>
   </si>
@@ -31,49 +31,28 @@
     <t>icon</t>
   </si>
   <si>
-    <t>attbriuteName1</t>
+    <t>attbriuteId</t>
   </si>
   <si>
     <t>attributeValue1</t>
   </si>
   <si>
-    <t>attbriuteName2</t>
-  </si>
-  <si>
     <t>attributeValue2</t>
   </si>
   <si>
     <t>怜悯</t>
   </si>
   <si>
-    <t>冷却缩减</t>
-  </si>
-  <si>
     <t>梦魇</t>
   </si>
   <si>
-    <t>法术攻击</t>
-  </si>
-  <si>
-    <t>法术穿透</t>
-  </si>
-  <si>
     <t>圣人</t>
   </si>
   <si>
     <t>凶兆</t>
   </si>
   <si>
-    <t>攻击速度</t>
-  </si>
-  <si>
     <t>敬畏</t>
-  </si>
-  <si>
-    <t>物理防御</t>
-  </si>
-  <si>
-    <t>法术吸血</t>
   </si>
   <si>
     <t>心眼</t>
@@ -93,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -115,14 +94,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,107 +215,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -260,13 +239,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,169 +401,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +430,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,13 +483,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,17 +513,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,30 +530,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +550,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,7 +1005,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1062,10 +1041,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1073,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1084,8 +1063,8 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
+      <c r="F2" s="1">
+        <v>9</v>
       </c>
       <c r="G2" s="1">
         <v>0.01</v>
@@ -1098,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -1109,14 +1088,14 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>4.2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
+      <c r="H3" s="1">
+        <v>7</v>
       </c>
       <c r="I3" s="1">
         <v>2.4</v>
@@ -1127,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1138,8 +1117,8 @@
       <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
+      <c r="F4" s="1">
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>5.3</v>
@@ -1152,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -1163,14 +1142,14 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
+      <c r="F5" s="1">
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>4.2</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
+      <c r="H5" s="1">
+        <v>10</v>
       </c>
       <c r="I5" s="1">
         <v>0.006</v>
@@ -1181,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1192,14 +1171,14 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
+      <c r="F6" s="1">
+        <v>4</v>
       </c>
       <c r="G6" s="1">
         <v>5.9</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
+      <c r="H6" s="1">
+        <v>5</v>
       </c>
       <c r="I6" s="1">
         <v>0.007</v>
@@ -1210,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -1221,14 +1200,14 @@
       <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
+      <c r="F7" s="1">
+        <v>7</v>
       </c>
       <c r="G7" s="1">
         <v>6.4</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
+      <c r="H7" s="1">
+        <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>0.006</v>
@@ -1239,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -1250,14 +1229,14 @@
       <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>2.4</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
+      <c r="H8" s="1">
+        <v>9</v>
       </c>
       <c r="I8" s="1">
         <v>0.007</v>
@@ -1268,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -1279,14 +1258,14 @@
       <c r="E9" s="1">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
+      <c r="F9" s="1">
+        <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>2.4</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>19</v>
+      <c r="H9" s="1">
+        <v>5</v>
       </c>
       <c r="I9" s="1">
         <v>0.01</v>
@@ -1297,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -1308,8 +1287,8 @@
       <c r="E10" s="1">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
+      <c r="F10" s="1">
+        <v>5</v>
       </c>
       <c r="G10" s="1">
         <v>0.016</v>

--- a/Assets/Inscription.xlsx
+++ b/Assets/Inscription.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="9936"/>
+    <workbookView windowWidth="23895" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>id</t>
   </si>
@@ -31,144 +31,125 @@
     <t>icon</t>
   </si>
   <si>
+    <t>attbriuteId1</t>
+  </si>
+  <si>
     <t>attributeValue1</t>
   </si>
   <si>
+    <t>attbriuteId2</t>
+  </si>
+  <si>
     <t>attributeValue2</t>
   </si>
   <si>
+    <t>attibuteId3</t>
+  </si>
+  <si>
+    <t>attributeValues3</t>
+  </si>
+  <si>
     <t>怜悯</t>
   </si>
   <si>
     <t>梦魇</t>
   </si>
   <si>
+    <t>凶兆</t>
+  </si>
+  <si>
+    <t>敬畏</t>
+  </si>
+  <si>
+    <t>心眼</t>
+  </si>
+  <si>
+    <t>献祭</t>
+  </si>
+  <si>
+    <t>轮回</t>
+  </si>
+  <si>
+    <t>贪婪</t>
+  </si>
+  <si>
+    <t>传承</t>
+  </si>
+  <si>
+    <t>异变</t>
+  </si>
+  <si>
+    <t>纷争</t>
+  </si>
+  <si>
+    <t>无双</t>
+  </si>
+  <si>
+    <t>宿命</t>
+  </si>
+  <si>
+    <t>祸源</t>
+  </si>
+  <si>
+    <t>红月</t>
+  </si>
+  <si>
+    <t>长生</t>
+  </si>
+  <si>
+    <t>夺萃</t>
+  </si>
+  <si>
+    <t>兽痕</t>
+  </si>
+  <si>
+    <t>冥想</t>
+  </si>
+  <si>
+    <t>繁荣</t>
+  </si>
+  <si>
+    <t>调和</t>
+  </si>
+  <si>
+    <t>隐匿</t>
+  </si>
+  <si>
+    <t>狩猎</t>
+  </si>
+  <si>
+    <t>霸者</t>
+  </si>
+  <si>
+    <t>均衡</t>
+  </si>
+  <si>
+    <t>虚空</t>
+  </si>
+  <si>
+    <t>灵山</t>
+  </si>
+  <si>
+    <t>鹰眼</t>
+  </si>
+  <si>
+    <t>回声</t>
+  </si>
+  <si>
     <t>圣人</t>
-  </si>
-  <si>
-    <t>凶兆</t>
-  </si>
-  <si>
-    <t>敬畏</t>
-  </si>
-  <si>
-    <t>心眼</t>
-  </si>
-  <si>
-    <t>献祭</t>
-  </si>
-  <si>
-    <t>轮回</t>
-  </si>
-  <si>
-    <t>贪婪</t>
-  </si>
-  <si>
-    <t>attbriuteId1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attbriuteId2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传承</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纷争</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无双</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祸源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夺萃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冥想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>繁荣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐匿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狩猎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霸者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>均衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹰眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attibuteId3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attributeValues3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,20 +158,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -198,9 +504,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -212,10 +760,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -477,22 +1072,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="16.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.4416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1083333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.2166666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.4416666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1083333333333" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -513,30 +1109,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -554,12 +1150,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -583,12 +1179,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -609,15 +1205,15 @@
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -638,15 +1234,15 @@
         <v>5</v>
       </c>
       <c r="I5" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -667,15 +1263,15 @@
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -696,15 +1292,15 @@
         <v>9</v>
       </c>
       <c r="I7" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -728,12 +1324,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -748,15 +1344,15 @@
         <v>5</v>
       </c>
       <c r="G9" s="1">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -774,12 +1370,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -803,12 +1399,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -829,15 +1425,15 @@
         <v>6</v>
       </c>
       <c r="I12" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>5</v>
@@ -852,13 +1448,13 @@
         <v>12</v>
       </c>
       <c r="G13" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="H13" s="1">
         <v>13</v>
       </c>
       <c r="I13" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -866,7 +1462,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -887,21 +1483,21 @@
         <v>11</v>
       </c>
       <c r="I14" s="1">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
       </c>
       <c r="K14" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -916,15 +1512,15 @@
         <v>12</v>
       </c>
       <c r="G15" s="1">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -939,21 +1535,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="1">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="H16" s="1">
         <v>12</v>
       </c>
       <c r="I16" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -971,12 +1567,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -991,10 +1587,10 @@
         <v>6</v>
       </c>
       <c r="G18" s="1">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1014,7 +1610,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="H19" s="1">
         <v>11</v>
@@ -1023,7 +1619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1052,7 +1648,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1113,10 +1709,10 @@
         <v>15</v>
       </c>
       <c r="K22" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1145,7 +1741,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1174,7 +1770,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1197,7 +1793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1226,12 +1822,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
@@ -1252,15 +1848,15 @@
         <v>9</v>
       </c>
       <c r="I27" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
@@ -1278,12 +1874,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
@@ -1298,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H29" s="1">
         <v>8</v>
@@ -1307,12 +1903,12 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -1336,12 +1932,12 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1">
         <v>5</v>
@@ -1360,7 +1956,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Inscription.xlsx
+++ b/Assets/Inscription.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9930"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>id</t>
   </si>
@@ -137,6 +137,195 @@
   </si>
   <si>
     <t>圣人</t>
+  </si>
+  <si>
+    <t>狂热</t>
+  </si>
+  <si>
+    <t>惩戒</t>
+  </si>
+  <si>
+    <t>风暴</t>
+  </si>
+  <si>
+    <t>衰败</t>
+  </si>
+  <si>
+    <t>阳炎</t>
+  </si>
+  <si>
+    <t>戒律</t>
+  </si>
+  <si>
+    <t>荆棘</t>
+  </si>
+  <si>
+    <t>暴戾</t>
+  </si>
+  <si>
+    <t>奇袭</t>
+  </si>
+  <si>
+    <t>憎恶</t>
+  </si>
+  <si>
+    <t>无畏</t>
+  </si>
+  <si>
+    <t>铁躯</t>
+  </si>
+  <si>
+    <t>野心</t>
+  </si>
+  <si>
+    <t>潜能</t>
+  </si>
+  <si>
+    <t>庇护</t>
+  </si>
+  <si>
+    <t>侵蚀</t>
+  </si>
+  <si>
+    <t>吞噬</t>
+  </si>
+  <si>
+    <t>急救</t>
+  </si>
+  <si>
+    <t>滋生</t>
+  </si>
+  <si>
+    <t>复苏</t>
+  </si>
+  <si>
+    <t>刹那</t>
+  </si>
+  <si>
+    <t>气数</t>
+  </si>
+  <si>
+    <t>正义</t>
+  </si>
+  <si>
+    <t>渴血</t>
+  </si>
+  <si>
+    <t>一闪</t>
+  </si>
+  <si>
+    <t>振奋</t>
+  </si>
+  <si>
+    <t>信念</t>
+  </si>
+  <si>
+    <t>恐惧</t>
+  </si>
+  <si>
+    <t>致命</t>
+  </si>
+  <si>
+    <t>拯救</t>
+  </si>
+  <si>
+    <t>破魔</t>
+  </si>
+  <si>
+    <t>贯穿</t>
+  </si>
+  <si>
+    <t>收割</t>
+  </si>
+  <si>
+    <t>突进</t>
+  </si>
+  <si>
+    <t>崩坏</t>
+  </si>
+  <si>
+    <t>风怒</t>
+  </si>
+  <si>
+    <t>转换</t>
+  </si>
+  <si>
+    <t>饮血</t>
+  </si>
+  <si>
+    <t>神速</t>
+  </si>
+  <si>
+    <t>绽放</t>
+  </si>
+  <si>
+    <t>感应</t>
+  </si>
+  <si>
+    <t>强健</t>
+  </si>
+  <si>
+    <t>震击</t>
+  </si>
+  <si>
+    <t>践踏</t>
+  </si>
+  <si>
+    <t>痛苦</t>
+  </si>
+  <si>
+    <t>白刃</t>
+  </si>
+  <si>
+    <t>洞察</t>
+  </si>
+  <si>
+    <t>破甲</t>
+  </si>
+  <si>
+    <t>幻盾</t>
+  </si>
+  <si>
+    <t>坚壁</t>
+  </si>
+  <si>
+    <t>愈合</t>
+  </si>
+  <si>
+    <t>生长</t>
+  </si>
+  <si>
+    <t>吸收</t>
+  </si>
+  <si>
+    <t>刚毅</t>
+  </si>
+  <si>
+    <t>猛攻</t>
+  </si>
+  <si>
+    <t>斗志</t>
+  </si>
+  <si>
+    <t>勇气</t>
+  </si>
+  <si>
+    <t>专注</t>
+  </si>
+  <si>
+    <t>穿刺</t>
+  </si>
+  <si>
+    <t>应激</t>
+  </si>
+  <si>
+    <t>疾行</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>活力</t>
   </si>
 </sst>
 </file>
@@ -145,9 +334,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -159,53 +348,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,16 +362,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,29 +371,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,9 +392,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,10 +446,48 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -311,13 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +542,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,139 +680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +713,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -534,6 +738,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,30 +781,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -587,21 +791,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -610,10 +799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,133 +811,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -812,6 +1001,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1067,17 +1261,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1092,7 +1285,7 @@
     <col min="12" max="13" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,8 +1319,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1149,8 +1344,10 @@
       <c r="G2" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="L2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1178,8 +1375,10 @@
       <c r="I3" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1193,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1207,8 +1406,10 @@
       <c r="I4" s="1">
         <v>0.006</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1222,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -1236,8 +1437,10 @@
       <c r="I5" s="1">
         <v>0.007</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1251,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
         <v>7</v>
@@ -1265,8 +1468,10 @@
       <c r="I6" s="1">
         <v>0.006</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1280,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1294,8 +1499,10 @@
       <c r="I7" s="1">
         <v>0.007</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1309,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1323,8 +1530,10 @@
       <c r="I8" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1338,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
@@ -1346,8 +1555,10 @@
       <c r="G9" s="1">
         <v>0.016</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1361,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1369,8 +1580,10 @@
       <c r="G10" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1384,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1398,8 +1611,10 @@
       <c r="I11" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1413,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -1427,8 +1642,10 @@
       <c r="I12" s="1">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1442,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1">
         <v>12</v>
@@ -1456,8 +1673,10 @@
       <c r="I13" s="1">
         <v>0.036</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1471,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1">
         <v>10</v>
@@ -1491,8 +1710,10 @@
       <c r="K14" s="1">
         <v>2.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1506,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1">
         <v>12</v>
@@ -1514,8 +1735,10 @@
       <c r="G15" s="1">
         <v>0.016</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1529,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1">
         <v>10</v>
@@ -1543,8 +1766,10 @@
       <c r="I16" s="1">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1558,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1">
         <v>11</v>
@@ -1566,8 +1791,10 @@
       <c r="G17" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1581,7 +1808,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1">
         <v>6</v>
@@ -1589,8 +1816,10 @@
       <c r="G18" s="1">
         <v>0.016</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1604,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1">
         <v>12</v>
@@ -1618,8 +1847,10 @@
       <c r="I19" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1633,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1">
         <v>11</v>
@@ -1647,8 +1878,10 @@
       <c r="I20" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1662,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
@@ -1676,8 +1909,10 @@
       <c r="I21" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1691,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1">
         <v>11</v>
@@ -1711,8 +1946,10 @@
       <c r="K22" s="1">
         <v>0.004</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1726,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
@@ -1740,8 +1977,10 @@
       <c r="I23" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1755,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="1">
         <v>10</v>
@@ -1769,8 +2008,10 @@
       <c r="I24" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1784,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1">
         <v>4</v>
@@ -1792,8 +2033,10 @@
       <c r="G25" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1807,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="1">
         <v>4</v>
@@ -1821,8 +2064,10 @@
       <c r="I26" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="L26"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1836,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1">
         <v>11</v>
@@ -1850,8 +2095,10 @@
       <c r="I27" s="1">
         <v>0.006</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="L27"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1865,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
@@ -1873,8 +2120,10 @@
       <c r="G28" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="L28"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1888,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
@@ -1902,8 +2151,10 @@
       <c r="I29" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="L29"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1917,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1">
         <v>4</v>
@@ -1931,8 +2182,10 @@
       <c r="I30" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1946,13 +2199,1800 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="1">
         <v>5.3</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="H32" s="1">
+        <v>13</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L32"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="H34" s="1">
+        <v>13</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.011</v>
+      </c>
+      <c r="J34" s="1">
+        <v>10</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.006</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.012</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>35</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>7</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>36</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>12</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="L37"/>
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>38</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>11</v>
+      </c>
+      <c r="I39" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="L39"/>
+      <c r="M39"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>39</v>
+      </c>
+      <c r="F40" s="1">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="H40" s="1">
+        <v>9</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="L40"/>
+      <c r="M40"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="L41"/>
+      <c r="M41"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="L42"/>
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>42</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="L43"/>
+      <c r="M43"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="H44" s="1">
+        <v>8</v>
+      </c>
+      <c r="I44" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="L44"/>
+      <c r="M44"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>44</v>
+      </c>
+      <c r="F45" s="1">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="H45" s="1">
+        <v>14</v>
+      </c>
+      <c r="I45" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>9</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>14</v>
+      </c>
+      <c r="I46" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>7</v>
+      </c>
+      <c r="I47" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>47</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.008</v>
+      </c>
+      <c r="H48" s="1">
+        <v>10</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="L48"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>48</v>
+      </c>
+      <c r="F49" s="1">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="H49" s="1">
+        <v>15</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="J49" s="1">
+        <v>10</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="L49"/>
+      <c r="M49"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>49</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="H50" s="1">
+        <v>11</v>
+      </c>
+      <c r="I50" s="1">
+        <v>36</v>
+      </c>
+      <c r="L50"/>
+      <c r="M50"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>50</v>
+      </c>
+      <c r="F51" s="1">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1">
+        <v>9</v>
+      </c>
+      <c r="L51"/>
+      <c r="M51"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>51</v>
+      </c>
+      <c r="F52" s="1">
+        <v>11</v>
+      </c>
+      <c r="G52" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="H52" s="1">
+        <v>15</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.007</v>
+      </c>
+      <c r="L52"/>
+      <c r="M52"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>52</v>
+      </c>
+      <c r="F53" s="1">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1">
+        <v>45</v>
+      </c>
+      <c r="L53"/>
+      <c r="M53"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>53</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H54" s="1">
+        <v>11</v>
+      </c>
+      <c r="I54" s="1">
+        <v>36</v>
+      </c>
+      <c r="L54"/>
+      <c r="M54"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>54</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.008</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L55"/>
+      <c r="M55"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>55</v>
+      </c>
+      <c r="F56" s="1">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="H56" s="1">
+        <v>13</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.013</v>
+      </c>
+      <c r="L56"/>
+      <c r="M56"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>56</v>
+      </c>
+      <c r="F57" s="1">
+        <v>12</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="H57" s="1">
+        <v>10</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="L57"/>
+      <c r="M57"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>57</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="H58" s="1">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.002</v>
+      </c>
+      <c r="L58"/>
+      <c r="M58"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>58</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="L59"/>
+      <c r="M59"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>59</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="L60"/>
+      <c r="M60"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>60</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>8</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61"/>
+      <c r="M61"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>61</v>
+      </c>
+      <c r="F62" s="1">
+        <v>7</v>
+      </c>
+      <c r="G62" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="L62"/>
+      <c r="M62"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>62</v>
+      </c>
+      <c r="F63" s="1">
+        <v>8</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="L63"/>
+      <c r="M63"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>63</v>
+      </c>
+      <c r="F64" s="1">
+        <v>4</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>8</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="L64"/>
+      <c r="M64"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>64</v>
+      </c>
+      <c r="F65" s="1">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H65" s="1">
+        <v>9</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="L65"/>
+      <c r="M65"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>65</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H66" s="1">
+        <v>7</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="L66"/>
+      <c r="M66"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>66</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H67" s="1">
+        <v>3</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="L67"/>
+      <c r="M67"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>67</v>
+      </c>
+      <c r="F68" s="1">
+        <v>5</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.006</v>
+      </c>
+      <c r="L68"/>
+      <c r="M68"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1">
+        <v>68</v>
+      </c>
+      <c r="F69" s="1">
+        <v>6</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.006</v>
+      </c>
+      <c r="L69"/>
+      <c r="M69"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>69</v>
+      </c>
+      <c r="F70" s="1">
+        <v>6</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="H70" s="1">
+        <v>15</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="L70"/>
+      <c r="M70"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1">
+        <v>70</v>
+      </c>
+      <c r="F71" s="1">
+        <v>11</v>
+      </c>
+      <c r="G71" s="1">
+        <v>12</v>
+      </c>
+      <c r="H71" s="1">
+        <v>14</v>
+      </c>
+      <c r="I71" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="L71"/>
+      <c r="M71"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>71</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H72" s="1">
+        <v>5</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="L72"/>
+      <c r="M72"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>72</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H73" s="1">
+        <v>11</v>
+      </c>
+      <c r="I73" s="1">
+        <v>24</v>
+      </c>
+      <c r="L73"/>
+      <c r="M73"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>73</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L74"/>
+      <c r="M74"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>74</v>
+      </c>
+      <c r="F75" s="1">
+        <v>10</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.006</v>
+      </c>
+      <c r="L75"/>
+      <c r="M75"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>75</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H76" s="1">
+        <v>12</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="L76"/>
+      <c r="M76"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>76</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H77" s="1">
+        <v>10</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.002</v>
+      </c>
+      <c r="L77"/>
+      <c r="M77"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>77</v>
+      </c>
+      <c r="F78" s="1">
+        <v>12</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="H78" s="1">
+        <v>7</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="L78"/>
+      <c r="M78"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>78</v>
+      </c>
+      <c r="F79" s="1">
+        <v>8</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="H79" s="1">
+        <v>10</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.002</v>
+      </c>
+      <c r="L79"/>
+      <c r="M79"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>79</v>
+      </c>
+      <c r="F80" s="1">
+        <v>3</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L80"/>
+      <c r="M80"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>80</v>
+      </c>
+      <c r="F81" s="1">
+        <v>4</v>
+      </c>
+      <c r="G81" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L81"/>
+      <c r="M81"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1">
+        <v>81</v>
+      </c>
+      <c r="F82" s="1">
+        <v>14</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="L82"/>
+      <c r="M82"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1">
+        <v>82</v>
+      </c>
+      <c r="F83" s="1">
+        <v>11</v>
+      </c>
+      <c r="G83" s="1">
+        <v>21</v>
+      </c>
+      <c r="L83"/>
+      <c r="M83"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2</v>
+      </c>
+      <c r="E84" s="1">
+        <v>83</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H84" s="1">
+        <v>5</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="L84"/>
+      <c r="M84"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1">
+        <v>84</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H85" s="1">
+        <v>6</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="L85"/>
+      <c r="M85"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>85</v>
+      </c>
+      <c r="F86" s="1">
+        <v>10</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="L86"/>
+      <c r="M86"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>86</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="L87"/>
+      <c r="M87"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>87</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L88"/>
+      <c r="M88"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>88</v>
+      </c>
+      <c r="F89" s="1">
+        <v>7</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>89</v>
+      </c>
+      <c r="F90" s="1">
+        <v>8</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
+        <v>90</v>
+      </c>
+      <c r="F91" s="1">
+        <v>9</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1">
+        <v>91</v>
+      </c>
+      <c r="F92" s="1">
+        <v>15</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1">
+        <v>92</v>
+      </c>
+      <c r="F93" s="1">
+        <v>14</v>
+      </c>
+      <c r="G93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2</v>
+      </c>
+      <c r="E94" s="1">
+        <v>93</v>
+      </c>
+      <c r="F94" s="1">
+        <v>11</v>
+      </c>
+      <c r="G94" s="1">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Inscription.xlsx
+++ b/Assets/Inscription.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23895" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -333,10 +333,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -356,9 +356,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,8 +399,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,99 +485,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,55 +500,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +530,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +596,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,49 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,13 +632,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,19 +668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,11 +694,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,32 +772,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,10 +799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,133 +811,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,11 +1001,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1261,16 +1256,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N88"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3875,7 +3871,10 @@
       <c r="L88"/>
       <c r="M88"/>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
       <c r="B89" s="1" t="s">
         <v>98</v>
       </c>
@@ -3895,7 +3894,10 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>99</v>
       </c>
@@ -3915,7 +3917,10 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>100</v>
       </c>
@@ -3935,7 +3940,10 @@
         <v>0.002</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>101</v>
       </c>
@@ -3955,7 +3963,10 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>102</v>
       </c>
@@ -3975,7 +3986,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
       <c r="B94" s="1" t="s">
         <v>103</v>
       </c>
